--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yslav\Desktop\MonashBootcamp\challenge-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D0D75-30D3-4685-AA04-1DE0E2E38A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1EE886-9EC6-4001-A86C-19FEF5872EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="735" windowWidth="33195" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43680" yWindow="735" windowWidth="22785" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
@@ -7015,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
-      <selection activeCell="F1003" sqref="F1003"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -55079,25 +55079,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="canceled">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="canceled">
       <formula>NOT(ISERROR(SEARCH("canceled",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="live">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="live">
       <formula>NOT(ISERROR(SEARCH("live",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="live">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="live">
       <formula>NOT(ISERROR(SEARCH("live",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="successful">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="successful">
       <formula>NOT(ISERROR(SEARCH("successful",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="live">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="live">
       <formula>NOT(ISERROR(SEARCH("live",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="200"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yslav\Desktop\MonashBootcamp\challenge-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE95EEE-9C56-468A-A427-F382A388B02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ABC585-A4E1-4CF8-8D9B-99A135BBB08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43680" yWindow="735" windowWidth="28410" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6776,6 +6776,1451 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[CrowdfundingBook.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>canceled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; video</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>games</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>journalism</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>photography</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>publishing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>technology</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>theater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9711-4012-AE2C-FE28E65F3233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; video</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>games</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>journalism</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>photography</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>publishing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>technology</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>theater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9711-4012-AE2C-FE28E65F3233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>live</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; video</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>games</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>journalism</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>photography</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>publishing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>technology</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>theater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9711-4012-AE2C-FE28E65F3233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>successful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>film &amp; video</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>food</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>games</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>journalism</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>music</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>photography</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>publishing</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>technology</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>theater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9711-4012-AE2C-FE28E65F3233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1811834256"/>
+        <c:axId val="1811837616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1811834256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811837616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1811837616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811834256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FAAC6A-0775-EA06-02EC-6E3CD4BA8970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="yslavcom" refreshedDate="45528.781490972222" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{C4BF578C-CD64-42E1-B61B-57E5963CD4DA}">
   <cacheSource type="worksheet">
@@ -26874,7 +28319,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F19AF0BB-7328-4A3F-BAFD-AE3A2DC7F37F}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F19AF0BB-7328-4A3F-BAFD-AE3A2DC7F37F}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -26989,6 +28434,56 @@
   <dataFields count="1">
     <dataField name="Count of outcome" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -27301,7 +28796,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -27572,6 +29067,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yslav\Desktop\MonashBootcamp\challenge-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ABC585-A4E1-4CF8-8D9B-99A135BBB08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC0CBC-0DC5-45CE-8EF0-46DC67A6D729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43680" yWindow="735" windowWidth="28410" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Per Category" sheetId="2" r:id="rId1"/>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -6790,7 +6790,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[CrowdfundingBook.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[CrowdfundingBook.xlsx]Per Category!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7032,7 +7032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>'Per Category'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7053,7 +7053,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Per Category'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7088,7 +7088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:f>'Per Category'!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7130,7 +7130,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:f>'Per Category'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7151,7 +7151,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Per Category'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7186,7 +7186,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:f>'Per Category'!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7228,7 +7228,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:f>'Per Category'!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7249,7 +7249,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Per Category'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7284,7 +7284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:f>'Per Category'!$D$5:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7320,7 +7320,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:f>'Per Category'!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7341,7 +7341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:f>'Per Category'!$A$5:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7376,7 +7376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:f>'Per Category'!$E$5:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>

--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yslav\Desktop\MonashBootcamp\challenge-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B6D1D6-0C67-486C-8280-6F9C7DE8650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D670AE94-8A87-4A14-B744-D6F9A02E83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="735" windowWidth="28410" windowHeight="19995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43680" yWindow="735" windowWidth="25635" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Per Category" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Per Sub-Category" sheetId="3" r:id="rId2"/>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -7696,7 +7696,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -7722,7 +7721,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[CrowdfundingBook.xlsx]Sheet2!PivotTable2</c:name>
+    <c:name>[CrowdfundingBook.xlsx]Per Sub-Category!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7968,7 +7967,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$4:$B$5</c:f>
+              <c:f>'Per Sub-Category'!$B$4:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7989,7 +7988,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$6:$A$30</c:f>
+              <c:f>'Per Sub-Category'!$A$6:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8069,7 +8068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$B$30</c:f>
+              <c:f>'Per Sub-Category'!$B$6:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8132,7 +8131,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$4:$C$5</c:f>
+              <c:f>'Per Sub-Category'!$C$4:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8153,7 +8152,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$6:$A$30</c:f>
+              <c:f>'Per Sub-Category'!$A$6:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8233,7 +8232,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$6:$C$30</c:f>
+              <c:f>'Per Sub-Category'!$C$6:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8317,7 +8316,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$4:$D$5</c:f>
+              <c:f>'Per Sub-Category'!$D$4:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8338,7 +8337,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$6:$A$30</c:f>
+              <c:f>'Per Sub-Category'!$A$6:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8418,7 +8417,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$6:$D$30</c:f>
+              <c:f>'Per Sub-Category'!$D$6:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8469,7 +8468,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$4:$E$5</c:f>
+              <c:f>'Per Sub-Category'!$E$4:$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8494,7 +8493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$6:$A$30</c:f>
+              <c:f>'Per Sub-Category'!$A$6:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
@@ -8574,7 +8573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$6:$E$30</c:f>
+              <c:f>'Per Sub-Category'!$E$6:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -8866,7 +8865,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -30351,7 +30349,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6ECA70C-146A-4847-AD38-EAE27943C2CC}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6ECA70C-146A-4847-AD38-EAE27943C2CC}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A4:F30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -30901,8 +30899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C5258C-8993-4593-B1DC-2320FEAF0A21}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -31181,8 +31179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03CD45F-F9FE-4DDD-8011-F2143266C2F6}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
